--- a/out/production/Myflower/excel/flower1.xlsx
+++ b/out/production/Myflower/excel/flower1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1002">
   <si>
     <t>FlowerID</t>
   </si>
@@ -140,7 +140,7 @@
     <t>10014</t>
   </si>
   <si>
-    <t>花名14</t>
+    <t>花名100</t>
   </si>
   <si>
     <t>20.92</t>
@@ -1053,9 +1053,6 @@
   </si>
   <si>
     <t>10100</t>
-  </si>
-  <si>
-    <t>花名100</t>
   </si>
   <si>
     <t>24.21</t>
@@ -4936,7 +4933,7 @@
         <v>346</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>347</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>47</v>
@@ -4945,7 +4942,7 @@
         <v>9</v>
       </c>
       <c r="E94" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F94" t="s" s="0">
         <v>11</v>
@@ -4953,10 +4950,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B95" t="s" s="0">
         <v>349</v>
-      </c>
-      <c r="B95" t="s" s="0">
-        <v>350</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>8</v>
@@ -4965,18 +4962,18 @@
         <v>15</v>
       </c>
       <c r="E95" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="F95" t="s" s="0">
         <v>351</v>
-      </c>
-      <c r="F95" t="s" s="0">
-        <v>352</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B96" t="s" s="0">
         <v>353</v>
-      </c>
-      <c r="B96" t="s" s="0">
-        <v>354</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>14</v>
@@ -4985,7 +4982,7 @@
         <v>21</v>
       </c>
       <c r="E96" t="s" s="0">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F96" t="s" s="0">
         <v>227</v>
@@ -4993,10 +4990,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B97" t="s" s="0">
         <v>356</v>
-      </c>
-      <c r="B97" t="s" s="0">
-        <v>357</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>20</v>
@@ -5005,7 +5002,7 @@
         <v>9</v>
       </c>
       <c r="E97" t="s" s="0">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F97" t="s" s="0">
         <v>23</v>
@@ -5013,10 +5010,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B98" t="s" s="0">
         <v>359</v>
-      </c>
-      <c r="B98" t="s" s="0">
-        <v>360</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>26</v>
@@ -5025,7 +5022,7 @@
         <v>15</v>
       </c>
       <c r="E98" t="s" s="0">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F98" t="s" s="0">
         <v>179</v>
@@ -5033,10 +5030,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="B99" t="s" s="0">
         <v>362</v>
-      </c>
-      <c r="B99" t="s" s="0">
-        <v>363</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>47</v>
@@ -5045,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="E99" t="s" s="0">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F99" t="s" s="0">
         <v>76</v>
@@ -5053,10 +5050,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B100" t="s" s="0">
         <v>365</v>
-      </c>
-      <c r="B100" t="s" s="0">
-        <v>366</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>8</v>
@@ -5065,7 +5062,7 @@
         <v>9</v>
       </c>
       <c r="E100" t="s" s="0">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F100" t="s" s="0">
         <v>65</v>
@@ -5073,10 +5070,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B101" t="s" s="0">
         <v>368</v>
-      </c>
-      <c r="B101" t="s" s="0">
-        <v>369</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>14</v>
@@ -5085,7 +5082,7 @@
         <v>15</v>
       </c>
       <c r="E101" t="s" s="0">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F101" t="s" s="0">
         <v>183</v>
@@ -5093,10 +5090,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="B102" t="s" s="0">
         <v>371</v>
-      </c>
-      <c r="B102" t="s" s="0">
-        <v>372</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>20</v>
@@ -5105,7 +5102,7 @@
         <v>21</v>
       </c>
       <c r="E102" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F102" t="s" s="0">
         <v>281</v>
@@ -5113,10 +5110,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B103" t="s" s="0">
         <v>374</v>
-      </c>
-      <c r="B103" t="s" s="0">
-        <v>375</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>26</v>
@@ -5125,18 +5122,18 @@
         <v>9</v>
       </c>
       <c r="E103" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="F103" t="s" s="0">
         <v>376</v>
-      </c>
-      <c r="F103" t="s" s="0">
-        <v>377</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B104" t="s" s="0">
         <v>378</v>
-      </c>
-      <c r="B104" t="s" s="0">
-        <v>379</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>47</v>
@@ -5145,18 +5142,18 @@
         <v>15</v>
       </c>
       <c r="E104" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="F104" t="s" s="0">
         <v>380</v>
-      </c>
-      <c r="F104" t="s" s="0">
-        <v>381</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B105" t="s" s="0">
         <v>382</v>
-      </c>
-      <c r="B105" t="s" s="0">
-        <v>383</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>8</v>
@@ -5165,18 +5162,18 @@
         <v>21</v>
       </c>
       <c r="E105" t="s" s="0">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F105" t="s" s="0">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="B106" t="s" s="0">
         <v>385</v>
-      </c>
-      <c r="B106" t="s" s="0">
-        <v>386</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>14</v>
@@ -5185,18 +5182,18 @@
         <v>9</v>
       </c>
       <c r="E106" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="F106" t="s" s="0">
         <v>387</v>
-      </c>
-      <c r="F106" t="s" s="0">
-        <v>388</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B107" t="s" s="0">
         <v>389</v>
-      </c>
-      <c r="B107" t="s" s="0">
-        <v>390</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>20</v>
@@ -5205,7 +5202,7 @@
         <v>15</v>
       </c>
       <c r="E107" t="s" s="0">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F107" t="s" s="0">
         <v>270</v>
@@ -5213,10 +5210,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B108" t="s" s="0">
         <v>392</v>
-      </c>
-      <c r="B108" t="s" s="0">
-        <v>393</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>26</v>
@@ -5225,7 +5222,7 @@
         <v>21</v>
       </c>
       <c r="E108" t="s" s="0">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F108" t="s" s="0">
         <v>107</v>
@@ -5233,10 +5230,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B109" t="s" s="0">
         <v>395</v>
-      </c>
-      <c r="B109" t="s" s="0">
-        <v>396</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>47</v>
@@ -5245,18 +5242,18 @@
         <v>9</v>
       </c>
       <c r="E109" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="F109" t="s" s="0">
         <v>397</v>
-      </c>
-      <c r="F109" t="s" s="0">
-        <v>398</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="B110" t="s" s="0">
         <v>399</v>
-      </c>
-      <c r="B110" t="s" s="0">
-        <v>400</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>8</v>
@@ -5265,7 +5262,7 @@
         <v>15</v>
       </c>
       <c r="E110" t="s" s="0">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F110" t="s" s="0">
         <v>154</v>
@@ -5273,10 +5270,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="B111" t="s" s="0">
         <v>402</v>
-      </c>
-      <c r="B111" t="s" s="0">
-        <v>403</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>14</v>
@@ -5288,15 +5285,15 @@
         <v>75</v>
       </c>
       <c r="F111" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="B112" t="s" s="0">
         <v>404</v>
-      </c>
-      <c r="B112" t="s" s="0">
-        <v>405</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>20</v>
@@ -5305,7 +5302,7 @@
         <v>9</v>
       </c>
       <c r="E112" t="s" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F112" t="s" s="0">
         <v>266</v>
@@ -5313,10 +5310,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B113" t="s" s="0">
         <v>407</v>
-      </c>
-      <c r="B113" t="s" s="0">
-        <v>408</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>26</v>
@@ -5325,18 +5322,18 @@
         <v>15</v>
       </c>
       <c r="E113" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="F113" t="s" s="0">
         <v>409</v>
-      </c>
-      <c r="F113" t="s" s="0">
-        <v>410</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="B114" t="s" s="0">
         <v>411</v>
-      </c>
-      <c r="B114" t="s" s="0">
-        <v>412</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>47</v>
@@ -5345,18 +5342,18 @@
         <v>21</v>
       </c>
       <c r="E114" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="F114" t="s" s="0">
         <v>413</v>
-      </c>
-      <c r="F114" t="s" s="0">
-        <v>414</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="B115" t="s" s="0">
         <v>415</v>
-      </c>
-      <c r="B115" t="s" s="0">
-        <v>416</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>8</v>
@@ -5365,7 +5362,7 @@
         <v>9</v>
       </c>
       <c r="E115" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F115" t="s" s="0">
         <v>28</v>
@@ -5373,10 +5370,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B116" t="s" s="0">
         <v>418</v>
-      </c>
-      <c r="B116" t="s" s="0">
-        <v>419</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>14</v>
@@ -5385,7 +5382,7 @@
         <v>15</v>
       </c>
       <c r="E116" t="s" s="0">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F116" t="s" s="0">
         <v>203</v>
@@ -5393,10 +5390,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="B117" t="s" s="0">
         <v>421</v>
-      </c>
-      <c r="B117" t="s" s="0">
-        <v>422</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>26</v>
@@ -5405,7 +5402,7 @@
         <v>9</v>
       </c>
       <c r="E117" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F117" t="s" s="0">
         <v>107</v>
@@ -5413,10 +5410,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B118" t="s" s="0">
         <v>424</v>
-      </c>
-      <c r="B118" t="s" s="0">
-        <v>425</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>47</v>
@@ -5425,7 +5422,7 @@
         <v>15</v>
       </c>
       <c r="E118" t="s" s="0">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F118" t="s" s="0">
         <v>281</v>
@@ -5433,10 +5430,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="B119" t="s" s="0">
         <v>427</v>
-      </c>
-      <c r="B119" t="s" s="0">
-        <v>428</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>8</v>
@@ -5445,18 +5442,18 @@
         <v>21</v>
       </c>
       <c r="E119" t="s" s="0">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F119" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="B120" t="s" s="0">
         <v>430</v>
-      </c>
-      <c r="B120" t="s" s="0">
-        <v>431</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>14</v>
@@ -5465,7 +5462,7 @@
         <v>9</v>
       </c>
       <c r="E120" t="s" s="0">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F120" t="s" s="0">
         <v>294</v>
@@ -5473,10 +5470,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="B121" t="s" s="0">
         <v>433</v>
-      </c>
-      <c r="B121" t="s" s="0">
-        <v>434</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>20</v>
@@ -5485,18 +5482,18 @@
         <v>15</v>
       </c>
       <c r="E121" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="F121" t="s" s="0">
         <v>435</v>
-      </c>
-      <c r="F121" t="s" s="0">
-        <v>436</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="B122" t="s" s="0">
         <v>437</v>
-      </c>
-      <c r="B122" t="s" s="0">
-        <v>438</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>26</v>
@@ -5505,7 +5502,7 @@
         <v>21</v>
       </c>
       <c r="E122" t="s" s="0">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F122" t="s" s="0">
         <v>227</v>
@@ -5513,10 +5510,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="B123" t="s" s="0">
         <v>440</v>
-      </c>
-      <c r="B123" t="s" s="0">
-        <v>441</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>47</v>
@@ -5525,18 +5522,18 @@
         <v>9</v>
       </c>
       <c r="E123" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="F123" t="s" s="0">
         <v>442</v>
-      </c>
-      <c r="F123" t="s" s="0">
-        <v>443</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="B124" t="s" s="0">
         <v>444</v>
-      </c>
-      <c r="B124" t="s" s="0">
-        <v>445</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>8</v>
@@ -5545,7 +5542,7 @@
         <v>15</v>
       </c>
       <c r="E124" t="s" s="0">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F124" t="s" s="0">
         <v>44</v>
@@ -5553,10 +5550,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="B125" t="s" s="0">
         <v>447</v>
-      </c>
-      <c r="B125" t="s" s="0">
-        <v>448</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>14</v>
@@ -5565,7 +5562,7 @@
         <v>21</v>
       </c>
       <c r="E125" t="s" s="0">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F125" t="s" s="0">
         <v>223</v>
@@ -5573,10 +5570,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B126" t="s" s="0">
         <v>450</v>
-      </c>
-      <c r="B126" t="s" s="0">
-        <v>451</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>20</v>
@@ -5585,7 +5582,7 @@
         <v>9</v>
       </c>
       <c r="E126" t="s" s="0">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F126" t="s" s="0">
         <v>88</v>
@@ -5593,10 +5590,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="B127" t="s" s="0">
         <v>453</v>
-      </c>
-      <c r="B127" t="s" s="0">
-        <v>454</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>26</v>
@@ -5605,18 +5602,18 @@
         <v>15</v>
       </c>
       <c r="E127" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F127" t="s" s="0">
         <v>455</v>
-      </c>
-      <c r="F127" t="s" s="0">
-        <v>456</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B128" t="s" s="0">
         <v>457</v>
-      </c>
-      <c r="B128" t="s" s="0">
-        <v>458</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>47</v>
@@ -5625,7 +5622,7 @@
         <v>21</v>
       </c>
       <c r="E128" t="s" s="0">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F128" t="s" s="0">
         <v>65</v>
@@ -5633,10 +5630,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="B129" t="s" s="0">
         <v>460</v>
-      </c>
-      <c r="B129" t="s" s="0">
-        <v>461</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>8</v>
@@ -5645,7 +5642,7 @@
         <v>9</v>
       </c>
       <c r="E129" t="s" s="0">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F129" t="s" s="0">
         <v>169</v>
@@ -5653,10 +5650,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="B130" t="s" s="0">
         <v>463</v>
-      </c>
-      <c r="B130" t="s" s="0">
-        <v>464</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>14</v>
@@ -5665,18 +5662,18 @@
         <v>15</v>
       </c>
       <c r="E130" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="F130" t="s" s="0">
         <v>465</v>
-      </c>
-      <c r="F130" t="s" s="0">
-        <v>466</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B131" t="s" s="0">
         <v>467</v>
-      </c>
-      <c r="B131" t="s" s="0">
-        <v>468</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>20</v>
@@ -5685,7 +5682,7 @@
         <v>21</v>
       </c>
       <c r="E131" t="s" s="0">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F131" t="s" s="0">
         <v>312</v>
@@ -5693,10 +5690,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="B132" t="s" s="0">
         <v>470</v>
-      </c>
-      <c r="B132" t="s" s="0">
-        <v>471</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>26</v>
@@ -5705,18 +5702,18 @@
         <v>9</v>
       </c>
       <c r="E132" t="s" s="0">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F132" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="B133" t="s" s="0">
         <v>473</v>
-      </c>
-      <c r="B133" t="s" s="0">
-        <v>474</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>47</v>
@@ -5725,18 +5722,18 @@
         <v>15</v>
       </c>
       <c r="E133" t="s" s="0">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F133" t="s" s="0">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="B134" t="s" s="0">
         <v>476</v>
-      </c>
-      <c r="B134" t="s" s="0">
-        <v>477</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>8</v>
@@ -5745,7 +5742,7 @@
         <v>21</v>
       </c>
       <c r="E134" t="s" s="0">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F134" t="s" s="0">
         <v>92</v>
@@ -5753,10 +5750,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="B135" t="s" s="0">
         <v>479</v>
-      </c>
-      <c r="B135" t="s" s="0">
-        <v>480</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>14</v>
@@ -5765,7 +5762,7 @@
         <v>9</v>
       </c>
       <c r="E135" t="s" s="0">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F135" t="s" s="0">
         <v>270</v>
@@ -5773,10 +5770,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="B136" t="s" s="0">
         <v>482</v>
-      </c>
-      <c r="B136" t="s" s="0">
-        <v>483</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>20</v>
@@ -5785,18 +5782,18 @@
         <v>15</v>
       </c>
       <c r="E136" t="s" s="0">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F136" t="s" s="0">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="B137" t="s" s="0">
         <v>485</v>
-      </c>
-      <c r="B137" t="s" s="0">
-        <v>486</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>26</v>
@@ -5805,18 +5802,18 @@
         <v>21</v>
       </c>
       <c r="E137" t="s" s="0">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F137" t="s" s="0">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B138" t="s" s="0">
         <v>488</v>
-      </c>
-      <c r="B138" t="s" s="0">
-        <v>489</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>47</v>
@@ -5825,18 +5822,18 @@
         <v>9</v>
       </c>
       <c r="E138" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="F138" t="s" s="0">
         <v>490</v>
-      </c>
-      <c r="F138" t="s" s="0">
-        <v>491</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="B139" t="s" s="0">
         <v>492</v>
-      </c>
-      <c r="B139" t="s" s="0">
-        <v>493</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>8</v>
@@ -5845,7 +5842,7 @@
         <v>15</v>
       </c>
       <c r="E139" t="s" s="0">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F139" t="s" s="0">
         <v>298</v>
@@ -5853,10 +5850,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="B140" t="s" s="0">
         <v>495</v>
-      </c>
-      <c r="B140" t="s" s="0">
-        <v>496</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>14</v>
@@ -5865,7 +5862,7 @@
         <v>21</v>
       </c>
       <c r="E140" t="s" s="0">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F140" t="s" s="0">
         <v>183</v>
@@ -5873,10 +5870,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="B141" t="s" s="0">
         <v>498</v>
-      </c>
-      <c r="B141" t="s" s="0">
-        <v>499</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>20</v>
@@ -5885,7 +5882,7 @@
         <v>9</v>
       </c>
       <c r="E141" t="s" s="0">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F141" t="s" s="0">
         <v>147</v>
@@ -5893,10 +5890,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="B142" t="s" s="0">
         <v>501</v>
-      </c>
-      <c r="B142" t="s" s="0">
-        <v>502</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>26</v>
@@ -5905,7 +5902,7 @@
         <v>15</v>
       </c>
       <c r="E142" t="s" s="0">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F142" t="s" s="0">
         <v>65</v>
@@ -5913,10 +5910,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="B143" t="s" s="0">
         <v>504</v>
-      </c>
-      <c r="B143" t="s" s="0">
-        <v>505</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>47</v>
@@ -5925,7 +5922,7 @@
         <v>21</v>
       </c>
       <c r="E143" t="s" s="0">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F143" t="s" s="0">
         <v>287</v>
@@ -5933,10 +5930,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B144" t="s" s="0">
         <v>507</v>
-      </c>
-      <c r="B144" t="s" s="0">
-        <v>508</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>8</v>
@@ -5945,7 +5942,7 @@
         <v>9</v>
       </c>
       <c r="E144" t="s" s="0">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F144" t="s" s="0">
         <v>183</v>
@@ -5953,10 +5950,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="B145" t="s" s="0">
         <v>510</v>
-      </c>
-      <c r="B145" t="s" s="0">
-        <v>511</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>14</v>
@@ -5965,7 +5962,7 @@
         <v>15</v>
       </c>
       <c r="E145" t="s" s="0">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F145" t="s" s="0">
         <v>179</v>
@@ -5973,10 +5970,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="B146" t="s" s="0">
         <v>513</v>
-      </c>
-      <c r="B146" t="s" s="0">
-        <v>514</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>20</v>
@@ -5988,15 +5985,15 @@
         <v>71</v>
       </c>
       <c r="F146" t="s" s="0">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="B147" t="s" s="0">
         <v>516</v>
-      </c>
-      <c r="B147" t="s" s="0">
-        <v>517</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>26</v>
@@ -6005,7 +6002,7 @@
         <v>9</v>
       </c>
       <c r="E147" t="s" s="0">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F147" t="s" s="0">
         <v>49</v>
@@ -6013,10 +6010,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="B148" t="s" s="0">
         <v>519</v>
-      </c>
-      <c r="B148" t="s" s="0">
-        <v>520</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>47</v>
@@ -6025,7 +6022,7 @@
         <v>15</v>
       </c>
       <c r="E148" t="s" s="0">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F148" t="s" s="0">
         <v>223</v>
@@ -6033,10 +6030,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="B149" t="s" s="0">
         <v>522</v>
-      </c>
-      <c r="B149" t="s" s="0">
-        <v>523</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>8</v>
@@ -6045,7 +6042,7 @@
         <v>21</v>
       </c>
       <c r="E149" t="s" s="0">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F149" t="s" s="0">
         <v>53</v>
@@ -6053,10 +6050,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="B150" t="s" s="0">
         <v>525</v>
-      </c>
-      <c r="B150" t="s" s="0">
-        <v>526</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>14</v>
@@ -6065,18 +6062,18 @@
         <v>9</v>
       </c>
       <c r="E150" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="F150" t="s" s="0">
         <v>527</v>
-      </c>
-      <c r="F150" t="s" s="0">
-        <v>528</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="B151" t="s" s="0">
         <v>529</v>
-      </c>
-      <c r="B151" t="s" s="0">
-        <v>530</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>20</v>
@@ -6085,7 +6082,7 @@
         <v>15</v>
       </c>
       <c r="E151" t="s" s="0">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F151" t="s" s="0">
         <v>277</v>
@@ -6093,10 +6090,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="B152" t="s" s="0">
         <v>532</v>
-      </c>
-      <c r="B152" t="s" s="0">
-        <v>533</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>26</v>
@@ -6105,7 +6102,7 @@
         <v>21</v>
       </c>
       <c r="E152" t="s" s="0">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F152" t="s" s="0">
         <v>147</v>
@@ -6113,10 +6110,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="B153" t="s" s="0">
         <v>535</v>
-      </c>
-      <c r="B153" t="s" s="0">
-        <v>536</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>47</v>
@@ -6125,7 +6122,7 @@
         <v>9</v>
       </c>
       <c r="E153" t="s" s="0">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F153" t="s" s="0">
         <v>88</v>
@@ -6133,10 +6130,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="B154" t="s" s="0">
         <v>538</v>
-      </c>
-      <c r="B154" t="s" s="0">
-        <v>539</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>8</v>
@@ -6145,18 +6142,18 @@
         <v>15</v>
       </c>
       <c r="E154" t="s" s="0">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F154" t="s" s="0">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="B155" t="s" s="0">
         <v>541</v>
-      </c>
-      <c r="B155" t="s" s="0">
-        <v>542</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>14</v>
@@ -6165,7 +6162,7 @@
         <v>21</v>
       </c>
       <c r="E155" t="s" s="0">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F155" t="s" s="0">
         <v>154</v>
@@ -6173,10 +6170,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="B156" t="s" s="0">
         <v>544</v>
-      </c>
-      <c r="B156" t="s" s="0">
-        <v>545</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>20</v>
@@ -6185,7 +6182,7 @@
         <v>9</v>
       </c>
       <c r="E156" t="s" s="0">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F156" t="s" s="0">
         <v>128</v>
@@ -6193,10 +6190,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="B157" t="s" s="0">
         <v>547</v>
-      </c>
-      <c r="B157" t="s" s="0">
-        <v>548</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>26</v>
@@ -6205,7 +6202,7 @@
         <v>15</v>
       </c>
       <c r="E157" t="s" s="0">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F157" t="s" s="0">
         <v>179</v>
@@ -6213,10 +6210,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="B158" t="s" s="0">
         <v>550</v>
-      </c>
-      <c r="B158" t="s" s="0">
-        <v>551</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>47</v>
@@ -6225,18 +6222,18 @@
         <v>21</v>
       </c>
       <c r="E158" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="F158" t="s" s="0">
         <v>552</v>
-      </c>
-      <c r="F158" t="s" s="0">
-        <v>553</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="B159" t="s" s="0">
         <v>554</v>
-      </c>
-      <c r="B159" t="s" s="0">
-        <v>555</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>8</v>
@@ -6245,18 +6242,18 @@
         <v>9</v>
       </c>
       <c r="E159" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="F159" t="s" s="0">
         <v>556</v>
-      </c>
-      <c r="F159" t="s" s="0">
-        <v>557</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="B160" t="s" s="0">
         <v>558</v>
-      </c>
-      <c r="B160" t="s" s="0">
-        <v>559</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>14</v>
@@ -6265,7 +6262,7 @@
         <v>15</v>
       </c>
       <c r="E160" t="s" s="0">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F160" t="s" s="0">
         <v>88</v>
@@ -6273,10 +6270,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="B161" t="s" s="0">
         <v>561</v>
-      </c>
-      <c r="B161" t="s" s="0">
-        <v>562</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>20</v>
@@ -6285,7 +6282,7 @@
         <v>21</v>
       </c>
       <c r="E161" t="s" s="0">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F161" t="s" s="0">
         <v>251</v>
@@ -6293,10 +6290,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="B162" t="s" s="0">
         <v>564</v>
-      </c>
-      <c r="B162" t="s" s="0">
-        <v>565</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>26</v>
@@ -6305,7 +6302,7 @@
         <v>9</v>
       </c>
       <c r="E162" t="s" s="0">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F162" t="s" s="0">
         <v>53</v>
@@ -6313,10 +6310,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="B163" t="s" s="0">
         <v>567</v>
-      </c>
-      <c r="B163" t="s" s="0">
-        <v>568</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>47</v>
@@ -6325,7 +6322,7 @@
         <v>15</v>
       </c>
       <c r="E163" t="s" s="0">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F163" t="s" s="0">
         <v>339</v>
@@ -6333,10 +6330,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="B164" t="s" s="0">
         <v>570</v>
-      </c>
-      <c r="B164" t="s" s="0">
-        <v>571</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>8</v>
@@ -6345,18 +6342,18 @@
         <v>21</v>
       </c>
       <c r="E164" t="s" s="0">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F164" t="s" s="0">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="B165" t="s" s="0">
         <v>573</v>
-      </c>
-      <c r="B165" t="s" s="0">
-        <v>574</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>14</v>
@@ -6365,7 +6362,7 @@
         <v>9</v>
       </c>
       <c r="E165" t="s" s="0">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F165" t="s" s="0">
         <v>65</v>
@@ -6373,10 +6370,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="B166" t="s" s="0">
         <v>576</v>
-      </c>
-      <c r="B166" t="s" s="0">
-        <v>577</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>20</v>
@@ -6385,7 +6382,7 @@
         <v>15</v>
       </c>
       <c r="E166" t="s" s="0">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F166" t="s" s="0">
         <v>103</v>
@@ -6393,10 +6390,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="B167" t="s" s="0">
         <v>579</v>
-      </c>
-      <c r="B167" t="s" s="0">
-        <v>580</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>26</v>
@@ -6405,7 +6402,7 @@
         <v>21</v>
       </c>
       <c r="E167" t="s" s="0">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F167" t="s" s="0">
         <v>65</v>
@@ -6413,10 +6410,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="B168" t="s" s="0">
         <v>582</v>
-      </c>
-      <c r="B168" t="s" s="0">
-        <v>583</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>47</v>
@@ -6425,7 +6422,7 @@
         <v>9</v>
       </c>
       <c r="E168" t="s" s="0">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F168" t="s" s="0">
         <v>132</v>
@@ -6433,10 +6430,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="B169" t="s" s="0">
         <v>585</v>
-      </c>
-      <c r="B169" t="s" s="0">
-        <v>586</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>8</v>
@@ -6445,18 +6442,18 @@
         <v>15</v>
       </c>
       <c r="E169" t="s" s="0">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F169" t="s" s="0">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="B170" t="s" s="0">
         <v>588</v>
-      </c>
-      <c r="B170" t="s" s="0">
-        <v>589</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>14</v>
@@ -6465,18 +6462,18 @@
         <v>21</v>
       </c>
       <c r="E170" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="F170" t="s" s="0">
         <v>590</v>
-      </c>
-      <c r="F170" t="s" s="0">
-        <v>591</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="B171" t="s" s="0">
         <v>592</v>
-      </c>
-      <c r="B171" t="s" s="0">
-        <v>593</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>20</v>
@@ -6485,7 +6482,7 @@
         <v>9</v>
       </c>
       <c r="E171" t="s" s="0">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F171" t="s" s="0">
         <v>72</v>
@@ -6493,10 +6490,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="B172" t="s" s="0">
         <v>595</v>
-      </c>
-      <c r="B172" t="s" s="0">
-        <v>596</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>26</v>
@@ -6505,7 +6502,7 @@
         <v>15</v>
       </c>
       <c r="E172" t="s" s="0">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F172" t="s" s="0">
         <v>339</v>
@@ -6513,10 +6510,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="B173" t="s" s="0">
         <v>598</v>
-      </c>
-      <c r="B173" t="s" s="0">
-        <v>599</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>47</v>
@@ -6525,18 +6522,18 @@
         <v>21</v>
       </c>
       <c r="E173" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="F173" t="s" s="0">
         <v>600</v>
-      </c>
-      <c r="F173" t="s" s="0">
-        <v>601</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="B174" t="s" s="0">
         <v>602</v>
-      </c>
-      <c r="B174" t="s" s="0">
-        <v>603</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>8</v>
@@ -6545,7 +6542,7 @@
         <v>9</v>
       </c>
       <c r="E174" t="s" s="0">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F174" t="s" s="0">
         <v>203</v>
@@ -6553,10 +6550,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B175" t="s" s="0">
         <v>605</v>
-      </c>
-      <c r="B175" t="s" s="0">
-        <v>606</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>14</v>
@@ -6565,18 +6562,18 @@
         <v>15</v>
       </c>
       <c r="E175" t="s" s="0">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F175" t="s" s="0">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="B176" t="s" s="0">
         <v>608</v>
-      </c>
-      <c r="B176" t="s" s="0">
-        <v>609</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>20</v>
@@ -6588,15 +6585,15 @@
         <v>16</v>
       </c>
       <c r="F176" t="s" s="0">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="B177" t="s" s="0">
         <v>610</v>
-      </c>
-      <c r="B177" t="s" s="0">
-        <v>611</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>26</v>
@@ -6605,18 +6602,18 @@
         <v>9</v>
       </c>
       <c r="E177" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="F177" t="s" s="0">
         <v>612</v>
-      </c>
-      <c r="F177" t="s" s="0">
-        <v>613</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="B178" t="s" s="0">
         <v>614</v>
-      </c>
-      <c r="B178" t="s" s="0">
-        <v>615</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>47</v>
@@ -6625,18 +6622,18 @@
         <v>15</v>
       </c>
       <c r="E178" t="s" s="0">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F178" t="s" s="0">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="B179" t="s" s="0">
         <v>617</v>
-      </c>
-      <c r="B179" t="s" s="0">
-        <v>618</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>8</v>
@@ -6645,7 +6642,7 @@
         <v>21</v>
       </c>
       <c r="E179" t="s" s="0">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F179" t="s" s="0">
         <v>136</v>
@@ -6653,10 +6650,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="B180" t="s" s="0">
         <v>620</v>
-      </c>
-      <c r="B180" t="s" s="0">
-        <v>621</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>14</v>
@@ -6665,7 +6662,7 @@
         <v>9</v>
       </c>
       <c r="E180" t="s" s="0">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F180" t="s" s="0">
         <v>262</v>
@@ -6673,10 +6670,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="B181" t="s" s="0">
         <v>623</v>
-      </c>
-      <c r="B181" t="s" s="0">
-        <v>624</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>20</v>
@@ -6685,7 +6682,7 @@
         <v>15</v>
       </c>
       <c r="E181" t="s" s="0">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F181" t="s" s="0">
         <v>17</v>
@@ -6693,10 +6690,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="B182" t="s" s="0">
         <v>626</v>
-      </c>
-      <c r="B182" t="s" s="0">
-        <v>627</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>26</v>
@@ -6705,18 +6702,18 @@
         <v>21</v>
       </c>
       <c r="E182" t="s" s="0">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F182" t="s" s="0">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="B183" t="s" s="0">
         <v>629</v>
-      </c>
-      <c r="B183" t="s" s="0">
-        <v>630</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>47</v>
@@ -6725,18 +6722,18 @@
         <v>9</v>
       </c>
       <c r="E183" t="s" s="0">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F183" t="s" s="0">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="B184" t="s" s="0">
         <v>632</v>
-      </c>
-      <c r="B184" t="s" s="0">
-        <v>633</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>8</v>
@@ -6745,7 +6742,7 @@
         <v>15</v>
       </c>
       <c r="E184" t="s" s="0">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F184" t="s" s="0">
         <v>88</v>
@@ -6753,10 +6750,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="B185" t="s" s="0">
         <v>635</v>
-      </c>
-      <c r="B185" t="s" s="0">
-        <v>636</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>14</v>
@@ -6765,7 +6762,7 @@
         <v>21</v>
       </c>
       <c r="E185" t="s" s="0">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F185" t="s" s="0">
         <v>203</v>
@@ -6773,10 +6770,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="B186" t="s" s="0">
         <v>638</v>
-      </c>
-      <c r="B186" t="s" s="0">
-        <v>639</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>20</v>
@@ -6785,7 +6782,7 @@
         <v>9</v>
       </c>
       <c r="E186" t="s" s="0">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F186" t="s" s="0">
         <v>251</v>
@@ -6793,10 +6790,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="B187" t="s" s="0">
         <v>641</v>
-      </c>
-      <c r="B187" t="s" s="0">
-        <v>642</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>26</v>
@@ -6805,7 +6802,7 @@
         <v>15</v>
       </c>
       <c r="E187" t="s" s="0">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F187" t="s" s="0">
         <v>96</v>
@@ -6813,10 +6810,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="B188" t="s" s="0">
         <v>644</v>
-      </c>
-      <c r="B188" t="s" s="0">
-        <v>645</v>
       </c>
       <c r="C188" t="s" s="0">
         <v>47</v>
@@ -6825,18 +6822,18 @@
         <v>21</v>
       </c>
       <c r="E188" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="F188" t="s" s="0">
         <v>646</v>
-      </c>
-      <c r="F188" t="s" s="0">
-        <v>647</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="B189" t="s" s="0">
         <v>648</v>
-      </c>
-      <c r="B189" t="s" s="0">
-        <v>649</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>8</v>
@@ -6845,18 +6842,18 @@
         <v>9</v>
       </c>
       <c r="E189" t="s" s="0">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F189" t="s" s="0">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="B190" t="s" s="0">
         <v>651</v>
-      </c>
-      <c r="B190" t="s" s="0">
-        <v>652</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>14</v>
@@ -6865,18 +6862,18 @@
         <v>15</v>
       </c>
       <c r="E190" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="F190" t="s" s="0">
         <v>653</v>
-      </c>
-      <c r="F190" t="s" s="0">
-        <v>654</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="B191" t="s" s="0">
         <v>655</v>
-      </c>
-      <c r="B191" t="s" s="0">
-        <v>656</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>20</v>
@@ -6885,7 +6882,7 @@
         <v>21</v>
       </c>
       <c r="E191" t="s" s="0">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F191" t="s" s="0">
         <v>11</v>
@@ -6893,10 +6890,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="B192" t="s" s="0">
         <v>658</v>
-      </c>
-      <c r="B192" t="s" s="0">
-        <v>659</v>
       </c>
       <c r="C192" t="s" s="0">
         <v>26</v>
@@ -6905,18 +6902,18 @@
         <v>9</v>
       </c>
       <c r="E192" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="F192" t="s" s="0">
         <v>660</v>
-      </c>
-      <c r="F192" t="s" s="0">
-        <v>661</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="B193" t="s" s="0">
         <v>662</v>
-      </c>
-      <c r="B193" t="s" s="0">
-        <v>663</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>47</v>
@@ -6925,7 +6922,7 @@
         <v>15</v>
       </c>
       <c r="E193" t="s" s="0">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F193" t="s" s="0">
         <v>65</v>
@@ -6933,10 +6930,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="B194" t="s" s="0">
         <v>665</v>
-      </c>
-      <c r="B194" t="s" s="0">
-        <v>666</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>8</v>
@@ -6945,7 +6942,7 @@
         <v>21</v>
       </c>
       <c r="E194" t="s" s="0">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F194" t="s" s="0">
         <v>294</v>
@@ -6953,10 +6950,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="B195" t="s" s="0">
         <v>668</v>
-      </c>
-      <c r="B195" t="s" s="0">
-        <v>669</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>14</v>
@@ -6965,18 +6962,18 @@
         <v>9</v>
       </c>
       <c r="E195" t="s" s="0">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F195" t="s" s="0">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="B196" t="s" s="0">
         <v>670</v>
-      </c>
-      <c r="B196" t="s" s="0">
-        <v>671</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>20</v>
@@ -6993,10 +6990,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="B197" t="s" s="0">
         <v>672</v>
-      </c>
-      <c r="B197" t="s" s="0">
-        <v>673</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>26</v>
@@ -7005,18 +7002,18 @@
         <v>21</v>
       </c>
       <c r="E197" t="s" s="0">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F197" t="s" s="0">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="B198" t="s" s="0">
         <v>675</v>
-      </c>
-      <c r="B198" t="s" s="0">
-        <v>676</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>47</v>
@@ -7025,7 +7022,7 @@
         <v>9</v>
       </c>
       <c r="E198" t="s" s="0">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F198" t="s" s="0">
         <v>65</v>
@@ -7033,10 +7030,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="B199" t="s" s="0">
         <v>678</v>
-      </c>
-      <c r="B199" t="s" s="0">
-        <v>679</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>8</v>
@@ -7045,18 +7042,18 @@
         <v>15</v>
       </c>
       <c r="E199" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="F199" t="s" s="0">
         <v>680</v>
-      </c>
-      <c r="F199" t="s" s="0">
-        <v>681</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="B200" t="s" s="0">
         <v>682</v>
-      </c>
-      <c r="B200" t="s" s="0">
-        <v>683</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>14</v>
@@ -7065,18 +7062,18 @@
         <v>21</v>
       </c>
       <c r="E200" t="s" s="0">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F200" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="B201" t="s" s="0">
         <v>685</v>
-      </c>
-      <c r="B201" t="s" s="0">
-        <v>686</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>20</v>
@@ -7085,7 +7082,7 @@
         <v>9</v>
       </c>
       <c r="E201" t="s" s="0">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F201" t="s" s="0">
         <v>28</v>
@@ -7093,10 +7090,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="B202" t="s" s="0">
         <v>688</v>
-      </c>
-      <c r="B202" t="s" s="0">
-        <v>689</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>26</v>
@@ -7105,18 +7102,18 @@
         <v>15</v>
       </c>
       <c r="E202" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="F202" t="s" s="0">
         <v>690</v>
-      </c>
-      <c r="F202" t="s" s="0">
-        <v>691</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="B203" t="s" s="0">
         <v>692</v>
-      </c>
-      <c r="B203" t="s" s="0">
-        <v>693</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>47</v>
@@ -7125,7 +7122,7 @@
         <v>21</v>
       </c>
       <c r="E203" t="s" s="0">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F203" t="s" s="0">
         <v>23</v>
@@ -7133,10 +7130,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="B204" t="s" s="0">
         <v>695</v>
-      </c>
-      <c r="B204" t="s" s="0">
-        <v>696</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>8</v>
@@ -7145,7 +7142,7 @@
         <v>9</v>
       </c>
       <c r="E204" t="s" s="0">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F204" t="s" s="0">
         <v>165</v>
@@ -7153,10 +7150,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="B205" t="s" s="0">
         <v>698</v>
-      </c>
-      <c r="B205" t="s" s="0">
-        <v>699</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>14</v>
@@ -7165,18 +7162,18 @@
         <v>15</v>
       </c>
       <c r="E205" t="s" s="0">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F205" t="s" s="0">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="B206" t="s" s="0">
         <v>701</v>
-      </c>
-      <c r="B206" t="s" s="0">
-        <v>702</v>
       </c>
       <c r="C206" t="s" s="0">
         <v>20</v>
@@ -7185,18 +7182,18 @@
         <v>21</v>
       </c>
       <c r="E206" t="s" s="0">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F206" t="s" s="0">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="B207" t="s" s="0">
         <v>704</v>
-      </c>
-      <c r="B207" t="s" s="0">
-        <v>705</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>26</v>
@@ -7205,18 +7202,18 @@
         <v>9</v>
       </c>
       <c r="E207" t="s" s="0">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F207" t="s" s="0">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
+        <v>706</v>
+      </c>
+      <c r="B208" t="s" s="0">
         <v>707</v>
-      </c>
-      <c r="B208" t="s" s="0">
-        <v>708</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>47</v>
@@ -7225,7 +7222,7 @@
         <v>15</v>
       </c>
       <c r="E208" t="s" s="0">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F208" t="s" s="0">
         <v>266</v>
@@ -7233,10 +7230,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
+        <v>709</v>
+      </c>
+      <c r="B209" t="s" s="0">
         <v>710</v>
-      </c>
-      <c r="B209" t="s" s="0">
-        <v>711</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>8</v>
@@ -7245,7 +7242,7 @@
         <v>21</v>
       </c>
       <c r="E209" t="s" s="0">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F209" t="s" s="0">
         <v>179</v>
@@ -7253,10 +7250,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="B210" t="s" s="0">
         <v>713</v>
-      </c>
-      <c r="B210" t="s" s="0">
-        <v>714</v>
       </c>
       <c r="C210" t="s" s="0">
         <v>14</v>
@@ -7265,18 +7262,18 @@
         <v>9</v>
       </c>
       <c r="E210" t="s" s="0">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F210" t="s" s="0">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="B211" t="s" s="0">
         <v>716</v>
-      </c>
-      <c r="B211" t="s" s="0">
-        <v>717</v>
       </c>
       <c r="C211" t="s" s="0">
         <v>20</v>
@@ -7285,18 +7282,18 @@
         <v>15</v>
       </c>
       <c r="E211" t="s" s="0">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F211" t="s" s="0">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="B212" t="s" s="0">
         <v>719</v>
-      </c>
-      <c r="B212" t="s" s="0">
-        <v>720</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>26</v>
@@ -7305,18 +7302,18 @@
         <v>21</v>
       </c>
       <c r="E212" t="s" s="0">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F212" t="s" s="0">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="B213" t="s" s="0">
         <v>722</v>
-      </c>
-      <c r="B213" t="s" s="0">
-        <v>723</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>47</v>
@@ -7325,7 +7322,7 @@
         <v>9</v>
       </c>
       <c r="E213" t="s" s="0">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F213" t="s" s="0">
         <v>210</v>
@@ -7333,10 +7330,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="B214" t="s" s="0">
         <v>725</v>
-      </c>
-      <c r="B214" t="s" s="0">
-        <v>726</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>8</v>
@@ -7345,7 +7342,7 @@
         <v>15</v>
       </c>
       <c r="E214" t="s" s="0">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F214" t="s" s="0">
         <v>17</v>
@@ -7353,10 +7350,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="B215" t="s" s="0">
         <v>728</v>
-      </c>
-      <c r="B215" t="s" s="0">
-        <v>729</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>14</v>
@@ -7365,7 +7362,7 @@
         <v>21</v>
       </c>
       <c r="E215" t="s" s="0">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F215" t="s" s="0">
         <v>339</v>
@@ -7373,10 +7370,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="B216" t="s" s="0">
         <v>731</v>
-      </c>
-      <c r="B216" t="s" s="0">
-        <v>732</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>20</v>
@@ -7385,7 +7382,7 @@
         <v>9</v>
       </c>
       <c r="E216" t="s" s="0">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F216" t="s" s="0">
         <v>88</v>
@@ -7393,10 +7390,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="B217" t="s" s="0">
         <v>734</v>
-      </c>
-      <c r="B217" t="s" s="0">
-        <v>735</v>
       </c>
       <c r="C217" t="s" s="0">
         <v>26</v>
@@ -7405,18 +7402,18 @@
         <v>15</v>
       </c>
       <c r="E217" t="s" s="0">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F217" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="B218" t="s" s="0">
         <v>737</v>
-      </c>
-      <c r="B218" t="s" s="0">
-        <v>738</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>47</v>
@@ -7425,18 +7422,18 @@
         <v>21</v>
       </c>
       <c r="E218" t="s" s="0">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F218" t="s" s="0">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
+        <v>739</v>
+      </c>
+      <c r="B219" t="s" s="0">
         <v>740</v>
-      </c>
-      <c r="B219" t="s" s="0">
-        <v>741</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>8</v>
@@ -7445,18 +7442,18 @@
         <v>9</v>
       </c>
       <c r="E219" t="s" s="0">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F219" t="s" s="0">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="B220" t="s" s="0">
         <v>743</v>
-      </c>
-      <c r="B220" t="s" s="0">
-        <v>744</v>
       </c>
       <c r="C220" t="s" s="0">
         <v>14</v>
@@ -7465,7 +7462,7 @@
         <v>15</v>
       </c>
       <c r="E220" t="s" s="0">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F220" t="s" s="0">
         <v>308</v>
@@ -7473,10 +7470,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="B221" t="s" s="0">
         <v>746</v>
-      </c>
-      <c r="B221" t="s" s="0">
-        <v>747</v>
       </c>
       <c r="C221" t="s" s="0">
         <v>20</v>
@@ -7485,18 +7482,18 @@
         <v>21</v>
       </c>
       <c r="E221" t="s" s="0">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F221" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="B222" t="s" s="0">
         <v>749</v>
-      </c>
-      <c r="B222" t="s" s="0">
-        <v>750</v>
       </c>
       <c r="C222" t="s" s="0">
         <v>26</v>
@@ -7505,7 +7502,7 @@
         <v>9</v>
       </c>
       <c r="E222" t="s" s="0">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F222" t="s" s="0">
         <v>262</v>
@@ -7513,10 +7510,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="B223" t="s" s="0">
         <v>752</v>
-      </c>
-      <c r="B223" t="s" s="0">
-        <v>753</v>
       </c>
       <c r="C223" t="s" s="0">
         <v>47</v>
@@ -7525,7 +7522,7 @@
         <v>15</v>
       </c>
       <c r="E223" t="s" s="0">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F223" t="s" s="0">
         <v>143</v>
@@ -7533,10 +7530,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="B224" t="s" s="0">
         <v>755</v>
-      </c>
-      <c r="B224" t="s" s="0">
-        <v>756</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>8</v>
@@ -7545,18 +7542,18 @@
         <v>21</v>
       </c>
       <c r="E224" t="s" s="0">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F224" t="s" s="0">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
+        <v>757</v>
+      </c>
+      <c r="B225" t="s" s="0">
         <v>758</v>
-      </c>
-      <c r="B225" t="s" s="0">
-        <v>759</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>14</v>
@@ -7565,7 +7562,7 @@
         <v>9</v>
       </c>
       <c r="E225" t="s" s="0">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F225" t="s" s="0">
         <v>17</v>
@@ -7573,10 +7570,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="B226" t="s" s="0">
         <v>761</v>
-      </c>
-      <c r="B226" t="s" s="0">
-        <v>762</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>20</v>
@@ -7585,18 +7582,18 @@
         <v>15</v>
       </c>
       <c r="E226" t="s" s="0">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F226" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
+        <v>763</v>
+      </c>
+      <c r="B227" t="s" s="0">
         <v>764</v>
-      </c>
-      <c r="B227" t="s" s="0">
-        <v>765</v>
       </c>
       <c r="C227" t="s" s="0">
         <v>26</v>
@@ -7605,7 +7602,7 @@
         <v>21</v>
       </c>
       <c r="E227" t="s" s="0">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F227" t="s" s="0">
         <v>234</v>
@@ -7613,10 +7610,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="B228" t="s" s="0">
         <v>767</v>
-      </c>
-      <c r="B228" t="s" s="0">
-        <v>768</v>
       </c>
       <c r="C228" t="s" s="0">
         <v>47</v>
@@ -7625,18 +7622,18 @@
         <v>9</v>
       </c>
       <c r="E228" t="s" s="0">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F228" t="s" s="0">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="B229" t="s" s="0">
         <v>770</v>
-      </c>
-      <c r="B229" t="s" s="0">
-        <v>771</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>8</v>
@@ -7645,7 +7642,7 @@
         <v>15</v>
       </c>
       <c r="E229" t="s" s="0">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F229" t="s" s="0">
         <v>17</v>
@@ -7653,10 +7650,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
+        <v>772</v>
+      </c>
+      <c r="B230" t="s" s="0">
         <v>773</v>
-      </c>
-      <c r="B230" t="s" s="0">
-        <v>774</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>14</v>
@@ -7665,18 +7662,18 @@
         <v>21</v>
       </c>
       <c r="E230" t="s" s="0">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F230" t="s" s="0">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="B231" t="s" s="0">
         <v>776</v>
-      </c>
-      <c r="B231" t="s" s="0">
-        <v>777</v>
       </c>
       <c r="C231" t="s" s="0">
         <v>20</v>
@@ -7685,7 +7682,7 @@
         <v>9</v>
       </c>
       <c r="E231" t="s" s="0">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F231" t="s" s="0">
         <v>312</v>
@@ -7693,10 +7690,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="B232" t="s" s="0">
         <v>779</v>
-      </c>
-      <c r="B232" t="s" s="0">
-        <v>780</v>
       </c>
       <c r="C232" t="s" s="0">
         <v>26</v>
@@ -7705,7 +7702,7 @@
         <v>15</v>
       </c>
       <c r="E232" t="s" s="0">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F232" t="s" s="0">
         <v>165</v>
@@ -7713,10 +7710,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="B233" t="s" s="0">
         <v>782</v>
-      </c>
-      <c r="B233" t="s" s="0">
-        <v>783</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>47</v>
@@ -7725,18 +7722,18 @@
         <v>21</v>
       </c>
       <c r="E233" t="s" s="0">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F233" t="s" s="0">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="B234" t="s" s="0">
         <v>785</v>
-      </c>
-      <c r="B234" t="s" s="0">
-        <v>786</v>
       </c>
       <c r="C234" t="s" s="0">
         <v>8</v>
@@ -7745,18 +7742,18 @@
         <v>9</v>
       </c>
       <c r="E234" t="s" s="0">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F234" t="s" s="0">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
+        <v>787</v>
+      </c>
+      <c r="B235" t="s" s="0">
         <v>788</v>
-      </c>
-      <c r="B235" t="s" s="0">
-        <v>789</v>
       </c>
       <c r="C235" t="s" s="0">
         <v>14</v>
@@ -7765,18 +7762,18 @@
         <v>15</v>
       </c>
       <c r="E235" t="s" s="0">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F235" t="s" s="0">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="B236" t="s" s="0">
         <v>791</v>
-      </c>
-      <c r="B236" t="s" s="0">
-        <v>792</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>20</v>
@@ -7785,7 +7782,7 @@
         <v>21</v>
       </c>
       <c r="E236" t="s" s="0">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F236" t="s" s="0">
         <v>210</v>
@@ -7793,10 +7790,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
+        <v>793</v>
+      </c>
+      <c r="B237" t="s" s="0">
         <v>794</v>
-      </c>
-      <c r="B237" t="s" s="0">
-        <v>795</v>
       </c>
       <c r="C237" t="s" s="0">
         <v>26</v>
@@ -7805,18 +7802,18 @@
         <v>9</v>
       </c>
       <c r="E237" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="F237" t="s" s="0">
         <v>796</v>
-      </c>
-      <c r="F237" t="s" s="0">
-        <v>797</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="B238" t="s" s="0">
         <v>798</v>
-      </c>
-      <c r="B238" t="s" s="0">
-        <v>799</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>47</v>
@@ -7825,18 +7822,18 @@
         <v>15</v>
       </c>
       <c r="E238" t="s" s="0">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F238" t="s" s="0">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="B239" t="s" s="0">
         <v>801</v>
-      </c>
-      <c r="B239" t="s" s="0">
-        <v>802</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>8</v>
@@ -7845,18 +7842,18 @@
         <v>21</v>
       </c>
       <c r="E239" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="F239" t="s" s="0">
         <v>803</v>
-      </c>
-      <c r="F239" t="s" s="0">
-        <v>804</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
+        <v>804</v>
+      </c>
+      <c r="B240" t="s" s="0">
         <v>805</v>
-      </c>
-      <c r="B240" t="s" s="0">
-        <v>806</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>14</v>
@@ -7865,7 +7862,7 @@
         <v>9</v>
       </c>
       <c r="E240" t="s" s="0">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F240" t="s" s="0">
         <v>169</v>
@@ -7873,10 +7870,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
+        <v>807</v>
+      </c>
+      <c r="B241" t="s" s="0">
         <v>808</v>
-      </c>
-      <c r="B241" t="s" s="0">
-        <v>809</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>20</v>
@@ -7885,7 +7882,7 @@
         <v>15</v>
       </c>
       <c r="E241" t="s" s="0">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F241" t="s" s="0">
         <v>238</v>
@@ -7893,10 +7890,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="B242" t="s" s="0">
         <v>811</v>
-      </c>
-      <c r="B242" t="s" s="0">
-        <v>812</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>26</v>
@@ -7905,7 +7902,7 @@
         <v>21</v>
       </c>
       <c r="E242" t="s" s="0">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F242" t="s" s="0">
         <v>76</v>
@@ -7913,10 +7910,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="B243" t="s" s="0">
         <v>814</v>
-      </c>
-      <c r="B243" t="s" s="0">
-        <v>815</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>47</v>
@@ -7925,7 +7922,7 @@
         <v>9</v>
       </c>
       <c r="E243" t="s" s="0">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F243" t="s" s="0">
         <v>227</v>
@@ -7933,10 +7930,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="B244" t="s" s="0">
         <v>817</v>
-      </c>
-      <c r="B244" t="s" s="0">
-        <v>818</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>8</v>
@@ -7945,18 +7942,18 @@
         <v>15</v>
       </c>
       <c r="E244" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="F244" t="s" s="0">
         <v>819</v>
-      </c>
-      <c r="F244" t="s" s="0">
-        <v>820</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
+        <v>820</v>
+      </c>
+      <c r="B245" t="s" s="0">
         <v>821</v>
-      </c>
-      <c r="B245" t="s" s="0">
-        <v>822</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>14</v>
@@ -7965,18 +7962,18 @@
         <v>21</v>
       </c>
       <c r="E245" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="F245" t="s" s="0">
         <v>823</v>
-      </c>
-      <c r="F245" t="s" s="0">
-        <v>824</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="B246" t="s" s="0">
         <v>825</v>
-      </c>
-      <c r="B246" t="s" s="0">
-        <v>826</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>20</v>
@@ -7985,18 +7982,18 @@
         <v>9</v>
       </c>
       <c r="E246" t="s" s="0">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F246" t="s" s="0">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="B247" t="s" s="0">
         <v>828</v>
-      </c>
-      <c r="B247" t="s" s="0">
-        <v>829</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>26</v>
@@ -8005,18 +8002,18 @@
         <v>15</v>
       </c>
       <c r="E247" t="s" s="0">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F247" t="s" s="0">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="B248" t="s" s="0">
         <v>831</v>
-      </c>
-      <c r="B248" t="s" s="0">
-        <v>832</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>47</v>
@@ -8025,7 +8022,7 @@
         <v>21</v>
       </c>
       <c r="E248" t="s" s="0">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F248" t="s" s="0">
         <v>179</v>
@@ -8033,10 +8030,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="B249" t="s" s="0">
         <v>834</v>
-      </c>
-      <c r="B249" t="s" s="0">
-        <v>835</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>8</v>
@@ -8045,7 +8042,7 @@
         <v>9</v>
       </c>
       <c r="E249" t="s" s="0">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F249" t="s" s="0">
         <v>154</v>
@@ -8053,10 +8050,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="B250" t="s" s="0">
         <v>837</v>
-      </c>
-      <c r="B250" t="s" s="0">
-        <v>838</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>14</v>
@@ -8065,7 +8062,7 @@
         <v>15</v>
       </c>
       <c r="E250" t="s" s="0">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F250" t="s" s="0">
         <v>312</v>
@@ -8073,10 +8070,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="B251" t="s" s="0">
         <v>840</v>
-      </c>
-      <c r="B251" t="s" s="0">
-        <v>841</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>20</v>
@@ -8085,7 +8082,7 @@
         <v>21</v>
       </c>
       <c r="E251" t="s" s="0">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F251" t="s" s="0">
         <v>154</v>
@@ -8093,10 +8090,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
+        <v>842</v>
+      </c>
+      <c r="B252" t="s" s="0">
         <v>843</v>
-      </c>
-      <c r="B252" t="s" s="0">
-        <v>844</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>26</v>
@@ -8105,7 +8102,7 @@
         <v>9</v>
       </c>
       <c r="E252" t="s" s="0">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F252" t="s" s="0">
         <v>17</v>
@@ -8113,10 +8110,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="B253" t="s" s="0">
         <v>846</v>
-      </c>
-      <c r="B253" t="s" s="0">
-        <v>847</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>47</v>
@@ -8125,18 +8122,18 @@
         <v>15</v>
       </c>
       <c r="E253" t="s" s="0">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F253" t="s" s="0">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="B254" t="s" s="0">
         <v>849</v>
-      </c>
-      <c r="B254" t="s" s="0">
-        <v>850</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>8</v>
@@ -8145,7 +8142,7 @@
         <v>21</v>
       </c>
       <c r="E254" t="s" s="0">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F254" t="s" s="0">
         <v>238</v>
@@ -8153,10 +8150,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="B255" t="s" s="0">
         <v>852</v>
-      </c>
-      <c r="B255" t="s" s="0">
-        <v>853</v>
       </c>
       <c r="C255" t="s" s="0">
         <v>14</v>
@@ -8165,7 +8162,7 @@
         <v>9</v>
       </c>
       <c r="E255" t="s" s="0">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F255" t="s" s="0">
         <v>251</v>
@@ -8173,10 +8170,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
+        <v>854</v>
+      </c>
+      <c r="B256" t="s" s="0">
         <v>855</v>
-      </c>
-      <c r="B256" t="s" s="0">
-        <v>856</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>20</v>
@@ -8185,7 +8182,7 @@
         <v>15</v>
       </c>
       <c r="E256" t="s" s="0">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F256" t="s" s="0">
         <v>44</v>
@@ -8193,10 +8190,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
+        <v>857</v>
+      </c>
+      <c r="B257" t="s" s="0">
         <v>858</v>
-      </c>
-      <c r="B257" t="s" s="0">
-        <v>859</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>26</v>
@@ -8205,7 +8202,7 @@
         <v>21</v>
       </c>
       <c r="E257" t="s" s="0">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F257" t="s" s="0">
         <v>124</v>
@@ -8213,10 +8210,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
+        <v>860</v>
+      </c>
+      <c r="B258" t="s" s="0">
         <v>861</v>
-      </c>
-      <c r="B258" t="s" s="0">
-        <v>862</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>47</v>
@@ -8225,18 +8222,18 @@
         <v>9</v>
       </c>
       <c r="E258" t="s" s="0">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F258" t="s" s="0">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="B259" t="s" s="0">
         <v>864</v>
-      </c>
-      <c r="B259" t="s" s="0">
-        <v>865</v>
       </c>
       <c r="C259" t="s" s="0">
         <v>8</v>
@@ -8245,7 +8242,7 @@
         <v>15</v>
       </c>
       <c r="E259" t="s" s="0">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F259" t="s" s="0">
         <v>281</v>
@@ -8253,10 +8250,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="B260" t="s" s="0">
         <v>867</v>
-      </c>
-      <c r="B260" t="s" s="0">
-        <v>868</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>14</v>
@@ -8265,18 +8262,18 @@
         <v>21</v>
       </c>
       <c r="E260" t="s" s="0">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F260" t="s" s="0">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
+        <v>869</v>
+      </c>
+      <c r="B261" t="s" s="0">
         <v>870</v>
-      </c>
-      <c r="B261" t="s" s="0">
-        <v>871</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>20</v>
@@ -8285,7 +8282,7 @@
         <v>9</v>
       </c>
       <c r="E261" t="s" s="0">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F261" t="s" s="0">
         <v>143</v>
@@ -8293,10 +8290,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
+        <v>872</v>
+      </c>
+      <c r="B262" t="s" s="0">
         <v>873</v>
-      </c>
-      <c r="B262" t="s" s="0">
-        <v>874</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>26</v>
@@ -8305,7 +8302,7 @@
         <v>15</v>
       </c>
       <c r="E262" t="s" s="0">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F262" t="s" s="0">
         <v>329</v>
@@ -8313,10 +8310,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="B263" t="s" s="0">
         <v>876</v>
-      </c>
-      <c r="B263" t="s" s="0">
-        <v>877</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>47</v>
@@ -8325,18 +8322,18 @@
         <v>21</v>
       </c>
       <c r="E263" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="F263" t="s" s="0">
         <v>878</v>
-      </c>
-      <c r="F263" t="s" s="0">
-        <v>879</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
+        <v>879</v>
+      </c>
+      <c r="B264" t="s" s="0">
         <v>880</v>
-      </c>
-      <c r="B264" t="s" s="0">
-        <v>881</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>8</v>
@@ -8345,7 +8342,7 @@
         <v>9</v>
       </c>
       <c r="E264" t="s" s="0">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F264" t="s" s="0">
         <v>76</v>
@@ -8353,10 +8350,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
+        <v>882</v>
+      </c>
+      <c r="B265" t="s" s="0">
         <v>883</v>
-      </c>
-      <c r="B265" t="s" s="0">
-        <v>884</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>14</v>
@@ -8365,7 +8362,7 @@
         <v>15</v>
       </c>
       <c r="E265" t="s" s="0">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F265" t="s" s="0">
         <v>266</v>
@@ -8373,10 +8370,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="B266" t="s" s="0">
         <v>886</v>
-      </c>
-      <c r="B266" t="s" s="0">
-        <v>887</v>
       </c>
       <c r="C266" t="s" s="0">
         <v>20</v>
@@ -8385,7 +8382,7 @@
         <v>21</v>
       </c>
       <c r="E266" t="s" s="0">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F266" t="s" s="0">
         <v>80</v>
@@ -8393,10 +8390,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
+        <v>888</v>
+      </c>
+      <c r="B267" t="s" s="0">
         <v>889</v>
-      </c>
-      <c r="B267" t="s" s="0">
-        <v>890</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>26</v>
@@ -8405,18 +8402,18 @@
         <v>9</v>
       </c>
       <c r="E267" t="s" s="0">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F267" t="s" s="0">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="B268" t="s" s="0">
         <v>892</v>
-      </c>
-      <c r="B268" t="s" s="0">
-        <v>893</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>47</v>
@@ -8425,7 +8422,7 @@
         <v>15</v>
       </c>
       <c r="E268" t="s" s="0">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F268" t="s" s="0">
         <v>183</v>
@@ -8433,10 +8430,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="B269" t="s" s="0">
         <v>895</v>
-      </c>
-      <c r="B269" t="s" s="0">
-        <v>896</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>8</v>
@@ -8445,7 +8442,7 @@
         <v>21</v>
       </c>
       <c r="E269" t="s" s="0">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F269" t="s" s="0">
         <v>107</v>
@@ -8453,10 +8450,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="B270" t="s" s="0">
         <v>898</v>
-      </c>
-      <c r="B270" t="s" s="0">
-        <v>899</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>14</v>
@@ -8465,7 +8462,7 @@
         <v>9</v>
       </c>
       <c r="E270" t="s" s="0">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F270" t="s" s="0">
         <v>128</v>
@@ -8473,10 +8470,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="B271" t="s" s="0">
         <v>901</v>
-      </c>
-      <c r="B271" t="s" s="0">
-        <v>902</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>20</v>
@@ -8485,7 +8482,7 @@
         <v>15</v>
       </c>
       <c r="E271" t="s" s="0">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F271" t="s" s="0">
         <v>128</v>
@@ -8493,10 +8490,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
+        <v>903</v>
+      </c>
+      <c r="B272" t="s" s="0">
         <v>904</v>
-      </c>
-      <c r="B272" t="s" s="0">
-        <v>905</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>26</v>
@@ -8505,7 +8502,7 @@
         <v>21</v>
       </c>
       <c r="E272" t="s" s="0">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F272" t="s" s="0">
         <v>312</v>
@@ -8513,10 +8510,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
+        <v>906</v>
+      </c>
+      <c r="B273" t="s" s="0">
         <v>907</v>
-      </c>
-      <c r="B273" t="s" s="0">
-        <v>908</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>47</v>
@@ -8525,18 +8522,18 @@
         <v>9</v>
       </c>
       <c r="E273" t="s" s="0">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F273" t="s" s="0">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="B274" t="s" s="0">
         <v>910</v>
-      </c>
-      <c r="B274" t="s" s="0">
-        <v>911</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>8</v>
@@ -8548,15 +8545,15 @@
         <v>48</v>
       </c>
       <c r="F274" t="s" s="0">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
+        <v>911</v>
+      </c>
+      <c r="B275" t="s" s="0">
         <v>912</v>
-      </c>
-      <c r="B275" t="s" s="0">
-        <v>913</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>14</v>
@@ -8565,7 +8562,7 @@
         <v>21</v>
       </c>
       <c r="E275" t="s" s="0">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F275" t="s" s="0">
         <v>203</v>
@@ -8573,10 +8570,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
+        <v>914</v>
+      </c>
+      <c r="B276" t="s" s="0">
         <v>915</v>
-      </c>
-      <c r="B276" t="s" s="0">
-        <v>916</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>20</v>
@@ -8585,7 +8582,7 @@
         <v>9</v>
       </c>
       <c r="E276" t="s" s="0">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F276" t="s" s="0">
         <v>44</v>
@@ -8593,10 +8590,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="B277" t="s" s="0">
         <v>918</v>
-      </c>
-      <c r="B277" t="s" s="0">
-        <v>919</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>26</v>
@@ -8605,18 +8602,18 @@
         <v>15</v>
       </c>
       <c r="E277" t="s" s="0">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F277" t="s" s="0">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="B278" t="s" s="0">
         <v>921</v>
-      </c>
-      <c r="B278" t="s" s="0">
-        <v>922</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>47</v>
@@ -8625,18 +8622,18 @@
         <v>21</v>
       </c>
       <c r="E278" t="s" s="0">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F278" t="s" s="0">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="B279" t="s" s="0">
         <v>924</v>
-      </c>
-      <c r="B279" t="s" s="0">
-        <v>925</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>8</v>
@@ -8645,18 +8642,18 @@
         <v>9</v>
       </c>
       <c r="E279" t="s" s="0">
+        <v>925</v>
+      </c>
+      <c r="F279" t="s" s="0">
         <v>926</v>
-      </c>
-      <c r="F279" t="s" s="0">
-        <v>927</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
+        <v>927</v>
+      </c>
+      <c r="B280" t="s" s="0">
         <v>928</v>
-      </c>
-      <c r="B280" t="s" s="0">
-        <v>929</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>14</v>
@@ -8665,18 +8662,18 @@
         <v>15</v>
       </c>
       <c r="E280" t="s" s="0">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F280" t="s" s="0">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="B281" t="s" s="0">
         <v>931</v>
-      </c>
-      <c r="B281" t="s" s="0">
-        <v>932</v>
       </c>
       <c r="C281" t="s" s="0">
         <v>20</v>
@@ -8685,7 +8682,7 @@
         <v>21</v>
       </c>
       <c r="E281" t="s" s="0">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F281" t="s" s="0">
         <v>312</v>
@@ -8693,10 +8690,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
+        <v>933</v>
+      </c>
+      <c r="B282" t="s" s="0">
         <v>934</v>
-      </c>
-      <c r="B282" t="s" s="0">
-        <v>935</v>
       </c>
       <c r="C282" t="s" s="0">
         <v>26</v>
@@ -8705,18 +8702,18 @@
         <v>9</v>
       </c>
       <c r="E282" t="s" s="0">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F282" t="s" s="0">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
+        <v>936</v>
+      </c>
+      <c r="B283" t="s" s="0">
         <v>937</v>
-      </c>
-      <c r="B283" t="s" s="0">
-        <v>938</v>
       </c>
       <c r="C283" t="s" s="0">
         <v>47</v>
@@ -8725,7 +8722,7 @@
         <v>15</v>
       </c>
       <c r="E283" t="s" s="0">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F283" t="s" s="0">
         <v>238</v>
@@ -8733,10 +8730,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
+        <v>939</v>
+      </c>
+      <c r="B284" t="s" s="0">
         <v>940</v>
-      </c>
-      <c r="B284" t="s" s="0">
-        <v>941</v>
       </c>
       <c r="C284" t="s" s="0">
         <v>8</v>
@@ -8745,7 +8742,7 @@
         <v>21</v>
       </c>
       <c r="E284" t="s" s="0">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F284" t="s" s="0">
         <v>53</v>
@@ -8753,10 +8750,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="B285" t="s" s="0">
         <v>943</v>
-      </c>
-      <c r="B285" t="s" s="0">
-        <v>944</v>
       </c>
       <c r="C285" t="s" s="0">
         <v>14</v>
@@ -8765,7 +8762,7 @@
         <v>9</v>
       </c>
       <c r="E285" t="s" s="0">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F285" t="s" s="0">
         <v>251</v>
@@ -8773,10 +8770,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
+        <v>945</v>
+      </c>
+      <c r="B286" t="s" s="0">
         <v>946</v>
-      </c>
-      <c r="B286" t="s" s="0">
-        <v>947</v>
       </c>
       <c r="C286" t="s" s="0">
         <v>20</v>
@@ -8785,18 +8782,18 @@
         <v>15</v>
       </c>
       <c r="E286" t="s" s="0">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F286" t="s" s="0">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
+        <v>948</v>
+      </c>
+      <c r="B287" t="s" s="0">
         <v>949</v>
-      </c>
-      <c r="B287" t="s" s="0">
-        <v>950</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>26</v>
@@ -8805,7 +8802,7 @@
         <v>21</v>
       </c>
       <c r="E287" t="s" s="0">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F287" t="s" s="0">
         <v>103</v>
@@ -8813,10 +8810,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="B288" t="s" s="0">
         <v>952</v>
-      </c>
-      <c r="B288" t="s" s="0">
-        <v>953</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>47</v>
@@ -8825,18 +8822,18 @@
         <v>9</v>
       </c>
       <c r="E288" t="s" s="0">
+        <v>953</v>
+      </c>
+      <c r="F288" t="s" s="0">
         <v>954</v>
-      </c>
-      <c r="F288" t="s" s="0">
-        <v>955</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
+        <v>955</v>
+      </c>
+      <c r="B289" t="s" s="0">
         <v>956</v>
-      </c>
-      <c r="B289" t="s" s="0">
-        <v>957</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>8</v>
@@ -8845,7 +8842,7 @@
         <v>15</v>
       </c>
       <c r="E289" t="s" s="0">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F289" t="s" s="0">
         <v>179</v>
@@ -8853,10 +8850,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
+        <v>958</v>
+      </c>
+      <c r="B290" t="s" s="0">
         <v>959</v>
-      </c>
-      <c r="B290" t="s" s="0">
-        <v>960</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>14</v>
@@ -8865,18 +8862,18 @@
         <v>21</v>
       </c>
       <c r="E290" t="s" s="0">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F290" t="s" s="0">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="B291" t="s" s="0">
         <v>962</v>
-      </c>
-      <c r="B291" t="s" s="0">
-        <v>963</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>20</v>
@@ -8885,7 +8882,7 @@
         <v>9</v>
       </c>
       <c r="E291" t="s" s="0">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F291" t="s" s="0">
         <v>17</v>
@@ -8893,10 +8890,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="B292" t="s" s="0">
         <v>965</v>
-      </c>
-      <c r="B292" t="s" s="0">
-        <v>966</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>26</v>
@@ -8905,7 +8902,7 @@
         <v>15</v>
       </c>
       <c r="E292" t="s" s="0">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F292" t="s" s="0">
         <v>183</v>
@@ -8913,10 +8910,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="B293" t="s" s="0">
         <v>968</v>
-      </c>
-      <c r="B293" t="s" s="0">
-        <v>969</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>47</v>
@@ -8925,18 +8922,18 @@
         <v>21</v>
       </c>
       <c r="E293" t="s" s="0">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F293" t="s" s="0">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="B294" t="s" s="0">
         <v>971</v>
-      </c>
-      <c r="B294" t="s" s="0">
-        <v>972</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>8</v>
@@ -8945,7 +8942,7 @@
         <v>9</v>
       </c>
       <c r="E294" t="s" s="0">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F294" t="s" s="0">
         <v>17</v>
@@ -8953,10 +8950,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
+        <v>973</v>
+      </c>
+      <c r="B295" t="s" s="0">
         <v>974</v>
-      </c>
-      <c r="B295" t="s" s="0">
-        <v>975</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>14</v>
@@ -8965,18 +8962,18 @@
         <v>15</v>
       </c>
       <c r="E295" t="s" s="0">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F295" t="s" s="0">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="B296" t="s" s="0">
         <v>976</v>
-      </c>
-      <c r="B296" t="s" s="0">
-        <v>977</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>20</v>
@@ -8985,7 +8982,7 @@
         <v>21</v>
       </c>
       <c r="E296" t="s" s="0">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F296" t="s" s="0">
         <v>117</v>
@@ -8993,10 +8990,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
+        <v>978</v>
+      </c>
+      <c r="B297" t="s" s="0">
         <v>979</v>
-      </c>
-      <c r="B297" t="s" s="0">
-        <v>980</v>
       </c>
       <c r="C297" t="s" s="0">
         <v>26</v>
@@ -9005,7 +9002,7 @@
         <v>9</v>
       </c>
       <c r="E297" t="s" s="0">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F297" t="s" s="0">
         <v>65</v>
@@ -9013,10 +9010,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="B298" t="s" s="0">
         <v>982</v>
-      </c>
-      <c r="B298" t="s" s="0">
-        <v>983</v>
       </c>
       <c r="C298" t="s" s="0">
         <v>47</v>
@@ -9025,18 +9022,18 @@
         <v>15</v>
       </c>
       <c r="E298" t="s" s="0">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F298" t="s" s="0">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
+        <v>984</v>
+      </c>
+      <c r="B299" t="s" s="0">
         <v>985</v>
-      </c>
-      <c r="B299" t="s" s="0">
-        <v>986</v>
       </c>
       <c r="C299" t="s" s="0">
         <v>8</v>
@@ -9045,18 +9042,18 @@
         <v>21</v>
       </c>
       <c r="E299" t="s" s="0">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F299" t="s" s="0">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
+        <v>987</v>
+      </c>
+      <c r="B300" t="s" s="0">
         <v>988</v>
-      </c>
-      <c r="B300" t="s" s="0">
-        <v>989</v>
       </c>
       <c r="C300" t="s" s="0">
         <v>14</v>
@@ -9065,18 +9062,18 @@
         <v>9</v>
       </c>
       <c r="E300" t="s" s="0">
+        <v>989</v>
+      </c>
+      <c r="F300" t="s" s="0">
         <v>990</v>
-      </c>
-      <c r="F300" t="s" s="0">
-        <v>991</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
+        <v>991</v>
+      </c>
+      <c r="B301" t="s" s="0">
         <v>992</v>
-      </c>
-      <c r="B301" t="s" s="0">
-        <v>993</v>
       </c>
       <c r="C301" t="s" s="0">
         <v>20</v>
@@ -9085,7 +9082,7 @@
         <v>15</v>
       </c>
       <c r="E301" t="s" s="0">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F301" t="s" s="0">
         <v>251</v>
@@ -9093,10 +9090,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="B302" t="s" s="0">
         <v>995</v>
-      </c>
-      <c r="B302" t="s" s="0">
-        <v>996</v>
       </c>
       <c r="C302" t="s" s="0">
         <v>26</v>
@@ -9105,7 +9102,7 @@
         <v>21</v>
       </c>
       <c r="E302" t="s" s="0">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F302" t="s" s="0">
         <v>49</v>
@@ -9113,10 +9110,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
+        <v>997</v>
+      </c>
+      <c r="B303" t="s" s="0">
         <v>998</v>
-      </c>
-      <c r="B303" t="s" s="0">
-        <v>999</v>
       </c>
       <c r="C303" t="s" s="0">
         <v>47</v>
@@ -9125,15 +9122,15 @@
         <v>9</v>
       </c>
       <c r="E303" t="s" s="0">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F303" t="s" s="0">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B304" t="s" s="0">
         <v>39</v>
@@ -9153,7 +9150,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B305" t="s" s="0">
         <v>39</v>
